--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_38.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08217799642218247</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min'], ['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'F:min', 'G:hdim7', 'C:7', 'F:min'], ['F:min', 'G:hdim7', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.76, 26.12), (13.08, 21.14)]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(51.29, 58.23), (52.68, 59.63)]</t>
+          <t>[('0:00:09.100000', '0:00:13.860000'), ('0:00:00.780000', '0:00:05.980000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:13.500000', '0:00:21.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1285431773236651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D', 'G', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3311965811965812</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:min', 'F', 'Bb', 'F', 'F']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(50.098594, 57.2039)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(61.6, 68.09)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:06.020000'), ('0:00:01.260000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:08.900000', '0:00:18.920000'), ('0:00:10.260000', '0:00:21.600000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1148917366327883</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(85.75, 90.9)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(35.66, 40.88)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_33</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02143841559899954</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:min7', 'C:7', 'F:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05716783216783217</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Db:min7', 'Gb:7', 'Cb:maj7']]</t>
+          <t>[['F:maj', 'F:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(22.21, 25.02)]</t>
+          <t>[['B', 'B/7', 'G#:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.19, 5.12)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:07.580000', '0:00:14.880000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.421247', '0:00:04.929002')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.08673469387755102</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:min7', 'B:7', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.708194, 10.061936)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(9.66, 10.95)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03709677419354838</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>[['C', 'C/G', 'G:7']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.08, 11.7)]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.513843, 26.514661)]</t>
+          <t>[('0:04:02.220000', '0:04:04.560000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:07.590000', '0:00:10.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4153846153846154</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(26.96, 30.84), (15.06, 20.56)]</t>
+          <t>[['B', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:19.602494', '0:00:26.162131')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4166666666666666</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(37.995918, 52.29941)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(118.4, 122.36)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(143.58, 149.12)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.995918, 49.466575)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_68</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1431818181818182</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'F/5', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D#:dim7', 'C', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(5.11, 8.54)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(34.662154, 68.548448)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:10.100000', '0:01:03.440000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5397727272727273</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.86, 45.46)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2488038277511962</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G', 'E:min', 'C', 'D', 'G', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'F#:min', 'D', 'E', 'A', 'F#:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(38.793167, 53.746817)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.367506, 31.599071)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_64</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1004237288135593</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F#:7', 'B:7', 'E:7'], ['B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:7', 'G:7'], ['D:7', 'G:7', 'C:maj']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.612539, 26.651269), (22.622607, 28.741065)]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(56.72, 62.21), (25.11, 28.41)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.02840136054421769</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.619, 16.742)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
